--- a/medicine/Enfance/Cécile_Aubry/Cécile_Aubry.xlsx
+++ b/medicine/Enfance/Cécile_Aubry/Cécile_Aubry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Aubry</t>
+          <t>Cécile_Aubry</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne-José Bénard, dite Cécile Aubry, est une écrivaine, scénariste, réalisatrice et actrice française, née le 3 août 1928 à Paris 16e et morte le 19 juillet 2010 à Dourdan (Essonne).
 Elle est notamment connue pour avoir écrit les feuilletons télévisés à succès des années 1960 comme la série Poly, Belle et Sébastien tiré de ses divers romans ayant Belle et Sébastien où l'on retrouve son fils Mehdi El Glaoui comme acteur principal ainsi que la série Le Jeune Fabre, qui fait connaître l'actrice Véronique Jannot.
-Elle est également l'autrice d'une cinquantaine de livres pour enfants[1], dont la série Poly, qu'elle a d'abord développée sous forme de feuilleton télévisé.
+Elle est également l'autrice d'une cinquantaine de livres pour enfants, dont la série Poly, qu'elle a d'abord développée sous forme de feuilleton télévisé.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Aubry</t>
+          <t>Cécile_Aubry</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,20 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Naissance et famille
-Anne-José Madeleine Henriette Bénard[2] est issue d'une famille de la grande bourgeoisie. Son père Lucien Bénard, polytechnicien[3], est spécialiste en liquidation de sociétés, et sa mère, Marguerite Candelier[4], est égyptologue[5].
-Comme actrice
-Elle débute comme danseuse, et suit une formation de comédienne au cours Simon, où Henri-Georges Clouzot la découvre[6]. Elle connaît un succès retentissant dès ses débuts avec le film Manon, de Clouzot, tourné en 1949 et recevant le Lion d'Or à Venise[7]. Incarnant selon la volonté du réalisateur une ingénue perverse[8] aussi vénale que sexuellement ‘vorace’[9], ce personnage inscrit dans le mythe de la femme-enfant[10] lui apporte une notoriété internationale. Elle paraît à la une de l'édition du 26 juin 1950 du magazine Life[11] et signe un contrat avec la 20th Century Fox. Installée aux Etats-Unis, on la voit en 1950 dans La Rose noire, aux côtés des stars Tyrone Power et Orson Welles. Puis en 1951, elle est dans Barbe-Bleue la dernière femme de cet inquiétant personnage[7] ; elle joue face à Pierre Brasseur dans la version française, et Hans Albers dans la version allemande[12]. Pendant une dizaine d'années, elle joue encore dans quelques films et deux pièces de théâtre qui ne connaîtront pas le succès de ses débuts et se prête à des apparitions publicitaires[13].
-Mariage et naissance de Mehdi
-En 1956, elle épouse à la mosquée de Paris Si Brahim el Glaoui, fils de Thami El Glaoui, pacha de Marrakech[14], rencontré sur le  tournage de La Rose noire, et elle abandonne son métier d'actrice. La même année, elle donne naissance à un fils — le futur acteur et réalisateur Mehdi El Glaoui — et se fixe en France en achetant un grand moulin à 45 km au sud de Paris, à Saint-Cyr-sous-Dourdan, au bord de la Rémarde, dénommé Le Moulin bleu, pour y élever son fils loin de l'agitation parisienne. Mehdi n'aura presque pas connu son père, qui meurt en 1971.
-L'écriture et la télévision : Belle et Sébastien et autres œuvres
-Ayant renoncé à son métier d'actrice, elle devient écrivain pour la jeunesse[15]. Elle publie des ouvrages dont la critique note les qualités littéraires au service d'une trame attachante et nuancée[16], et adapte elle-même ses romans pour la télévision ; à l'inverse, elle écrit des scripts de séries dont elle tire ensuite des suites romanesques (adaptation en récit littéraire ou novélisation).
-Elle réalise d'abord une série de courts métrages, Les histoires de Cécile, où elle lit devant la caméra les histoires qu'elle a écrites et illustrées à son fils Mehdi alors âgé de deux ans. Ce travail la fait repérer et déclenche la production du feuilleton Poly en 1961, à partir d'une idée conçue en 1958 ; elle est à nouveau à l'écriture et à la réalisation, et Mehdi tient encore le rôle central[17]. La série de romans pour la jeunesse Poly paraît en France de 1964 à 1988 dans la Bibliothèque rose[18].
-C'est ensuite qu'arrive la série Belle et Sébastien, autre feuilleton télévisé autour d'un animal et d'un enfant, avec 39 épisodes diffusés en trois parties de 1965 à 1970 sur la première chaîne de l'ORTF et dans lequel le rôle principal est joué par son fils Mehdi[7],[5]. Elle y interprète également le rôle de la narratrice. Belle et Sébastien est un beau succès de la télévision, entre 1965 et 1968[7], et la série provoque même un engouement ponctuel en France pour les chiens de montagne des Pyrénées, dont la taille limite cependant l'implantation en milieu urbain[19]. les histoires sont adaptées en livres pour enfants, mêlant savamment mystère et émotion[20]. Poly comme Belle et Sébastien vont marquer une génération entière[21].
-En 1973, elle écrit le scénario d'une autre série pour la télévision, Le Jeune Fabre, qui fait connaître l'actrice Véronique Jannot et qui est aussi sa dernière collaboration à la télévision avec son fils, interprète du rôle-titre[7].
-Fin de vie
-Toujours retirée au Moulin bleu à Saint-Cyr-sous-Dourdan, elle meurt au centre hospitalier de Dourdan des suites d'un cancer du poumon le 19 juillet 2010 à l'âge de 81 ans[22],[2].
-Après des obsèques en l'église de Dourdan, elle est inhumée au cimetière de Montrouge situé à Paris 14e, aux côtés de sa mère.
+          <t>Naissance et famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anne-José Madeleine Henriette Bénard est issue d'une famille de la grande bourgeoisie. Son père Lucien Bénard, polytechnicien, est spécialiste en liquidation de sociétés, et sa mère, Marguerite Candelier, est égyptologue.
 </t>
         </is>
       </c>
@@ -539,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Aubry</t>
+          <t>Cécile_Aubry</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,12 +559,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hommage</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'école primaire de Saint-Cyr-sous-Dourdan est dénommée « école Cécile-Aubry ».
+          <t>Comme actrice</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle débute comme danseuse, et suit une formation de comédienne au cours Simon, où Henri-Georges Clouzot la découvre. Elle connaît un succès retentissant dès ses débuts avec le film Manon, de Clouzot, tourné en 1949 et recevant le Lion d'Or à Venise. Incarnant selon la volonté du réalisateur une ingénue perverse aussi vénale que sexuellement ‘vorace’, ce personnage inscrit dans le mythe de la femme-enfant lui apporte une notoriété internationale. Elle paraît à la une de l'édition du 26 juin 1950 du magazine Life et signe un contrat avec la 20th Century Fox. Installée aux Etats-Unis, on la voit en 1950 dans La Rose noire, aux côtés des stars Tyrone Power et Orson Welles. Puis en 1951, elle est dans Barbe-Bleue la dernière femme de cet inquiétant personnage ; elle joue face à Pierre Brasseur dans la version française, et Hans Albers dans la version allemande. Pendant une dizaine d'années, elle joue encore dans quelques films et deux pièces de théâtre qui ne connaîtront pas le succès de ses débuts et se prête à des apparitions publicitaires.
 </t>
         </is>
       </c>
@@ -570,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Aubry</t>
+          <t>Cécile_Aubry</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,22 +596,209 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mariage et naissance de Mehdi</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1956, elle épouse à la mosquée de Paris Si Brahim el Glaoui, fils de Thami El Glaoui, pacha de Marrakech, rencontré sur le  tournage de La Rose noire, et elle abandonne son métier d'actrice. La même année, elle donne naissance à un fils — le futur acteur et réalisateur Mehdi El Glaoui — et se fixe en France en achetant un grand moulin à 45 km au sud de Paris, à Saint-Cyr-sous-Dourdan, au bord de la Rémarde, dénommé Le Moulin bleu, pour y élever son fils loin de l'agitation parisienne. Mehdi n'aura presque pas connu son père, qui meurt en 1971.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cécile_Aubry</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9cile_Aubry</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>L'écriture et la télévision : Belle et Sébastien et autres œuvres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ayant renoncé à son métier d'actrice, elle devient écrivain pour la jeunesse. Elle publie des ouvrages dont la critique note les qualités littéraires au service d'une trame attachante et nuancée, et adapte elle-même ses romans pour la télévision ; à l'inverse, elle écrit des scripts de séries dont elle tire ensuite des suites romanesques (adaptation en récit littéraire ou novélisation).
+Elle réalise d'abord une série de courts métrages, Les histoires de Cécile, où elle lit devant la caméra les histoires qu'elle a écrites et illustrées à son fils Mehdi alors âgé de deux ans. Ce travail la fait repérer et déclenche la production du feuilleton Poly en 1961, à partir d'une idée conçue en 1958 ; elle est à nouveau à l'écriture et à la réalisation, et Mehdi tient encore le rôle central. La série de romans pour la jeunesse Poly paraît en France de 1964 à 1988 dans la Bibliothèque rose.
+C'est ensuite qu'arrive la série Belle et Sébastien, autre feuilleton télévisé autour d'un animal et d'un enfant, avec 39 épisodes diffusés en trois parties de 1965 à 1970 sur la première chaîne de l'ORTF et dans lequel le rôle principal est joué par son fils Mehdi,. Elle y interprète également le rôle de la narratrice. Belle et Sébastien est un beau succès de la télévision, entre 1965 et 1968, et la série provoque même un engouement ponctuel en France pour les chiens de montagne des Pyrénées, dont la taille limite cependant l'implantation en milieu urbain. les histoires sont adaptées en livres pour enfants, mêlant savamment mystère et émotion. Poly comme Belle et Sébastien vont marquer une génération entière.
+En 1973, elle écrit le scénario d'une autre série pour la télévision, Le Jeune Fabre, qui fait connaître l'actrice Véronique Jannot et qui est aussi sa dernière collaboration à la télévision avec son fils, interprète du rôle-titre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cécile_Aubry</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9cile_Aubry</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fin de vie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toujours retirée au Moulin bleu à Saint-Cyr-sous-Dourdan, elle meurt au centre hospitalier de Dourdan des suites d'un cancer du poumon le 19 juillet 2010 à l'âge de 81 ans,.
+Après des obsèques en l'église de Dourdan, elle est inhumée au cimetière de Montrouge situé à Paris 14e, aux côtés de sa mère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cécile_Aubry</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9cile_Aubry</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Hommage</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'école primaire de Saint-Cyr-sous-Dourdan est dénommée « école Cécile-Aubry ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cécile_Aubry</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9cile_Aubry</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Actrice
-1947 : Une nuit à Tabarin de Karel Lamač
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Actrice</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1947 : Une nuit à Tabarin de Karel Lamač
 1949 : Manon d'Henri-Georges Clouzot : Manon Lescaut
 1950 : La Rose noire (The Black Rose) d'Henry Hathaway : Maryam
 1951 : Barbe-Bleue (Blaubart) de Christian-Jaque : Aline
 1953 : Voleur malgré lui (it) (Piovuto dal cielo) de Leonardo De Mitri
 1954 : Danse au soleil (de) (Tanz in der Sonne) de Géza von Cziffra
 1959 : Bonjour la chance (La Ironía del dinero) de Edgar Neville &amp; Guy Lefranc : l'Américaine
-1960 : L'espionne sera à Nouméa de Georges Péclet
-Scénariste
-1961 : Poly, série télévisée puis de 1963 à 1973. Le rôle de Pascal est interprété par Mehdi El Glaoui, le fils de l'auteur.
+1960 : L'espionne sera à Nouméa de Georges Péclet</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cécile_Aubry</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9cile_Aubry</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Scénariste</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1961 : Poly, série télévisée puis de 1963 à 1973. Le rôle de Pascal est interprété par Mehdi El Glaoui, le fils de l'auteur.
 Poly ou le Mystère du château
 Les Vacances de Poly
 Poly et le Secret des sept étoiles
@@ -616,9 +814,43 @@
 1970 : Sébastien et la Mary-Morgane
 En 1981, la première saison est adaptée en film d'animation au Japon sous le titre Meiken Jolie. En 2013, elle fait également l'objet d'un film réalisé par Nicolas Vanier. L'appellation Saison a été créée pour le marketing de la série lors de sa sortie en dvd en 2005 et 2006 : le titre original de chacune des saisons 2 et 3 a pratiquement été occulté et ne figure qu'en caractères minuscules au dos du packaging des coffrets DVD.
 1973 : Le Jeune Fabre, série télévisée. Le jeune Fabre est interprété par Mehdi El Glaoui. La série fera connaître Véronique Jannot.
-1990 : Encontro em Lisboa, court-métrage de Claude Boissol
-Réalisatrice
-1961 : Poly ou le mystère du château
+1990 : Encontro em Lisboa, court-métrage de Claude Boissol</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cécile_Aubry</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9cile_Aubry</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Réalisatrice</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1961 : Poly ou le mystère du château
 1965 : Belle et Sébastien
 1968 : Sébastien parmi les hommes
 1970 : Sébastien et la Mary-Morgane
@@ -626,65 +858,72 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>C%C3%A9cile_Aubry</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/C%C3%A9cile_Aubry</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cécile_Aubry</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9cile_Aubry</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Théâtre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>1953 : O, mes aïeux !... de José-André Lacour, mise en scène Jean Le Poulain, théâtre de l'Œuvre
 1955 : La Chair de l'orchidée adaptation Frédéric Dard et Marcel Duhamel d'après James Hadley Chase, mise en scène Robert Hossein, théâtre du Grand-Guignol</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>C%C3%A9cile_Aubry</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/C%C3%A9cile_Aubry</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cécile_Aubry</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9cile_Aubry</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Poly
-Bibliothèque rose (Hachette).
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Poly</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bibliothèque rose (Hachette).
 Poly, 1964
 Les Vacances de Poly, 1964
 Poly et le secret des sept étoiles, 1966
@@ -707,8 +946,43 @@
  Poly fait scandale, 1984
 Poly se fâche, 1985
 Poly amoureux, 1986
-Belle et Sébastien
-Bibliothèque verte (Hachette) et Julliard.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cécile_Aubry</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9cile_Aubry</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Belle et Sébastien</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bibliothèque verte (Hachette) et Julliard.
 Belle et Sébastien : Le Refuge du Grand-Baou, 1966, Galaxie
 Belle et Sébastien : Le Document secret, 1966, Galaxie
 Sébastien parmi les hommes, 1968, Julliard
@@ -716,7 +990,43 @@
 Sébastien et la Mary Morgane : Le Retour du Narval, 1969, Presses Pocket
 Un été pour Sébastien, 1972, Presses Pocket
 Séverine, Belle et Sébastien, 1977, GRGR
-Autres romans
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cécile_Aubry</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9cile_Aubry</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Pick et Nicolas , 1958, Hachette
 Le Trouble des eaux, 1959, Oliven
 Le Jeune Fabre, 1973, Presses Pocket
@@ -727,8 +1037,43 @@
 Je n'avais pas pensé à toi, 1977, Julliard
 La Grande Bastide, 1979, Julliard
 Le Bonheur volé, 1981, Julliard
-Préface
-Dis, pourquoi ?, 1967, Hachette</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Cécile_Aubry</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9cile_Aubry</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Préface</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Dis, pourquoi ?, 1967, Hachette</t>
         </is>
       </c>
     </row>
